--- a/California_input/Freeway-District-Overview.xlsx
+++ b/California_input/Freeway-District-Overview.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Freeway</t>
   </si>
@@ -42,6 +42,75 @@
   </si>
   <si>
     <t>District(s)</t>
+  </si>
+  <si>
+    <t>I105</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>I110</t>
+  </si>
+  <si>
+    <t>I210</t>
+  </si>
+  <si>
+    <t>I215</t>
+  </si>
+  <si>
+    <t>I405</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I605</t>
+  </si>
+  <si>
+    <t>I80</t>
+  </si>
+  <si>
+    <t>SR101</t>
+  </si>
+  <si>
+    <t>SR118</t>
+  </si>
+  <si>
+    <t>SR134</t>
+  </si>
+  <si>
+    <t>SR14</t>
+  </si>
+  <si>
+    <t>SR170</t>
+  </si>
+  <si>
+    <t>SR22</t>
+  </si>
+  <si>
+    <t>SR51</t>
+  </si>
+  <si>
+    <t>SR55</t>
+  </si>
+  <si>
+    <t>SR57</t>
+  </si>
+  <si>
+    <t>SR60</t>
+  </si>
+  <si>
+    <t>SR71</t>
+  </si>
+  <si>
+    <t>SR91</t>
+  </si>
+  <si>
+    <t>SR99</t>
+  </si>
+  <si>
+    <t>US50</t>
   </si>
 </sst>
 </file>
@@ -385,7 +454,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,184 +468,184 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>105</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>110</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>210</v>
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>215</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>405</v>
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>605</v>
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>80</v>
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>101</v>
+      <c r="A11" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>118</v>
+      <c r="A12" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>134</v>
+      <c r="A13" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>170</v>
+      <c r="A15" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>22</v>
+      <c r="A16" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>51</v>
+      <c r="A17" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>55</v>
+      <c r="A18" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>57</v>
+      <c r="A19" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>60</v>
+      <c r="A20" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>71</v>
+      <c r="A21" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>91</v>
+      <c r="A22" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>99</v>
+      <c r="A23" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>50</v>
+      <c r="A24" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
